--- a/ifqe-portal-backend5/templates/3.3.1_Template.xlsx
+++ b/ifqe-portal-backend5/templates/3.3.1_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ba41319c6408853/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\OneDrive\Documents\ifqe\criteria 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844AF917-4371-4DD4-8C46-A7DC7843FAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41600814-9CD4-4653-99A1-8A0CF5C0E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{285E0962-A85D-44ED-B849-106568A87CF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{285E0962-A85D-44ED-B849-106568A87CF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>3.3.1 Mentor-Mentee Engagement</t>
   </si>
@@ -50,6 +41,9 @@
 3. Minutes of Meetings along with Attendance sheet
 4.Student Feedback
 5. Mentoring report for any special Counselling case (If any)</t>
+  </si>
+  <si>
+    <t>to be uploaded on portal</t>
   </si>
 </sst>
 </file>
@@ -88,14 +82,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="72"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -134,15 +129,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -159,20 +145,33 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -185,13 +184,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,42 +509,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF28CAF-34E3-4F02-89FC-570CCA1CFC10}">
-  <dimension ref="B1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
-    <col min="3" max="3" width="89.77734375" customWidth="1"/>
+    <col min="1" max="1" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="251.4" customHeight="1" thickBot="1" x14ac:dyDescent="1.7">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:4" ht="100.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>